--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W15_H100_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W15_H100_B16.xlsx
@@ -502,25 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5314465408805031</v>
+        <v>0.5426829268292683</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9184782608695652</v>
+        <v>0.9673913043478261</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5089820359281437</v>
+        <v>0.5329341317365269</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6733067729083666</v>
+        <v>0.6953125</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4940119760479042</v>
+        <v>0.4760479041916167</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1108048376030513</v>
+        <v>0.1175056276380162</v>
       </c>
       <c r="J2" t="n">
-        <v>1458.363232645921</v>
+        <v>1585.914382324797</v>
       </c>
       <c r="K2" t="n">
-        <v>3138454.110145356</v>
+        <v>3809769.969262546</v>
       </c>
       <c r="L2" t="n">
-        <v>1771.568262908702</v>
+        <v>1951.863204546504</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4180140817473301</v>
+        <v>0.293527196486547</v>
       </c>
     </row>
   </sheetData>
